--- a/src/com/testdata/freecrm.xlsx
+++ b/src/com/testdata/freecrm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Eclipse-workspace\FreeCRM\src\com\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00AB78-D657-4FC5-95AB-7F928A011DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5308BC14-3E5A-45B2-A091-B089035C7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12240" windowHeight="11385" xr2:uid="{1434248A-4F5D-4491-8070-79B82869433E}"/>
+    <workbookView xWindow="570" yWindow="2595" windowWidth="19035" windowHeight="11385" activeTab="1" xr2:uid="{1434248A-4F5D-4491-8070-79B82869433E}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="NewContact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Company</t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Nagendra</t>
+  </si>
+  <si>
+    <t>Prasad</t>
+  </si>
+  <si>
+    <t>Private Org</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -411,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097037AF-15DE-43F4-893E-D4E0600F9EE6}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -452,4 +474,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525AE40C-0086-4679-8E5F-3DCBFFDD1D3B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>